--- a/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
+++ b/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
@@ -1,36 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\02-Ins_NamedRanges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/cwru-cle-virt-data-pt-07-2021-u-c/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="DC6A508CB724DE4F1551BDFB3918CC2CF653C664" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{92A167DC-55F9-44DC-860D-3D15655D96C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6A1D2-F2CA-444C-AA58-B02E84E1C1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="443" windowWidth="25598" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping Trip" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="Bootcamp">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="ItemTable">'Shopping Trip'!$A$1:$D$6</definedName>
+    <definedName name="NewName">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="PaidTotal">'Shopping Trip'!$G$5</definedName>
+    <definedName name="Price_With_Taxes">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="Prices">'Shopping Trip'!$B$2:$B$6</definedName>
     <definedName name="Products">'Shopping Trip'!$A$2:$A$6</definedName>
     <definedName name="Tax">'Shopping Trip'!$C$2:$C$6</definedName>
     <definedName name="TaxPrice">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="TaxRate">'Shopping Trip'!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Product</t>
   </si>
@@ -73,6 +85,15 @@
   </si>
   <si>
     <t>Gallon of Ice Cream</t>
+  </si>
+  <si>
+    <t>Average Price</t>
+  </si>
+  <si>
+    <t>Average Tax</t>
+  </si>
+  <si>
+    <t>AveragePriceWithTaxes</t>
   </si>
 </sst>
 </file>
@@ -493,21 +514,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -543,7 +564,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -559,7 +580,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -578,7 +599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -598,7 +619,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -612,6 +633,39 @@
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="3">
+        <f>AVERAGE(Prices)</f>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="3">
+        <f>AVERAGE(TaxRate)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f>AVERAGE(Bootcamp)</f>
+        <v>14.52</v>
       </c>
     </row>
   </sheetData>

--- a/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
+++ b/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
@@ -1,48 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/cwru-cle-virt-data-pt-07-2021-u-c/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\02-Ins_NamedRanges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE6A1D2-F2CA-444C-AA58-B02E84E1C1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="DC6A508CB724DE4F1551BDFB3918CC2CF653C664" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{92A167DC-55F9-44DC-860D-3D15655D96C2}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="500" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="443" windowWidth="25598" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping Trip" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Bootcamp">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="ItemTable">'Shopping Trip'!$A$1:$D$6</definedName>
-    <definedName name="NewName">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="PaidTotal">'Shopping Trip'!$G$5</definedName>
-    <definedName name="Price_With_Taxes">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="Prices">'Shopping Trip'!$B$2:$B$6</definedName>
     <definedName name="Products">'Shopping Trip'!$A$2:$A$6</definedName>
     <definedName name="Tax">'Shopping Trip'!$C$2:$C$6</definedName>
     <definedName name="TaxPrice">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="TaxRate">'Shopping Trip'!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -52,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Product</t>
   </si>
@@ -85,15 +73,6 @@
   </si>
   <si>
     <t>Gallon of Ice Cream</t>
-  </si>
-  <si>
-    <t>Average Price</t>
-  </si>
-  <si>
-    <t>Average Tax</t>
-  </si>
-  <si>
-    <t>AveragePriceWithTaxes</t>
   </si>
 </sst>
 </file>
@@ -514,21 +493,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -564,7 +543,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -580,7 +559,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -599,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -619,7 +598,7 @@
         <v>72.599999999999994</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -633,39 +612,6 @@
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="3">
-        <f>AVERAGE(Prices)</f>
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="3">
-        <f>AVERAGE(TaxRate)</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G15">
-        <f>AVERAGE(Bootcamp)</f>
-        <v>14.52</v>
       </c>
     </row>
   </sheetData>

--- a/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
+++ b/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
@@ -1,36 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\02-Ins_NamedRanges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/cwru-cle-virt-data-pt-07-2021-u-c/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="DC6A508CB724DE4F1551BDFB3918CC2CF653C664" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{92A167DC-55F9-44DC-860D-3D15655D96C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEF3CE6-F03B-A44A-A395-F7DAB9C8401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="443" windowWidth="25598" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44300" yWindow="660" windowWidth="23440" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping Trip" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ItemTable">'Shopping Trip'!$A$1:$D$6</definedName>
-    <definedName name="PaidTotal">'Shopping Trip'!$G$5</definedName>
-    <definedName name="Prices">'Shopping Trip'!$B$2:$B$6</definedName>
-    <definedName name="Products">'Shopping Trip'!$A$2:$A$6</definedName>
-    <definedName name="Tax">'Shopping Trip'!$C$2:$C$6</definedName>
-    <definedName name="TaxPrice">'Shopping Trip'!$D$2:$D$6</definedName>
+    <definedName name="Tax_Rate">'Shopping Trip'!$G$2</definedName>
     <definedName name="TaxRate">'Shopping Trip'!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Product</t>
   </si>
@@ -73,6 +77,15 @@
   </si>
   <si>
     <t>Gallon of Ice Cream</t>
+  </si>
+  <si>
+    <t>Average Price</t>
+  </si>
+  <si>
+    <t>Average Tax</t>
+  </si>
+  <si>
+    <t>AveragePriceWithTaxes</t>
   </si>
 </sst>
 </file>
@@ -493,21 +506,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -543,7 +556,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -559,7 +572,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -578,7 +591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -593,12 +606,9 @@
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="G5" s="3">
-        <f>SUM(TaxPrice)</f>
-        <v>72.599999999999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -612,6 +622,27 @@
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
+++ b/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/cwru-cle-virt-data-pt-07-2021-u-c/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEF3CE6-F03B-A44A-A395-F7DAB9C8401F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B9E76-412C-274D-88C4-488DB8EE25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44300" yWindow="660" windowWidth="23440" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="24300" yWindow="1240" windowWidth="24000" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping Trip" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="House">'Shopping Trip'!$B$2:$B$6</definedName>
+    <definedName name="Prices">'Shopping Trip'!$B$2:$B$6</definedName>
     <definedName name="Tax_Rate">'Shopping Trip'!$G$2</definedName>
+    <definedName name="Tax_Sales">'Shopping Trip'!$C$2:$C$6</definedName>
     <definedName name="TaxRate">'Shopping Trip'!$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Product</t>
   </si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>AveragePriceWithTaxes</t>
+  </si>
+  <si>
+    <t>House average</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -630,7 +636,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <f>AVERAGE(Prices)</f>
+        <v>13.2</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
@@ -638,11 +647,25 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <f>AVERAGE(Tax_Sales)</f>
+        <v>1.3199999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f>AVERAGE(House)</f>
+        <v>13.2</v>
       </c>
     </row>
   </sheetData>

--- a/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
+++ b/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/ShoppingTrip.xlsx
@@ -1,43 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johntaylor/2021_2022_CWRU_BootCamp/cwru-cle-virt-data-pt-07-2021-u-c/01-Excel/2/Activities/02-Ins_NamedRanges/Solved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Documents\WorkAndSchool\TeachingAssistant\DataViz\DataViz-Lesson-Plans\01-Lesson-Plans\01-Excel\2\Activities\02-Ins_NamedRanges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{154B9E76-412C-274D-88C4-488DB8EE25EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="DC6A508CB724DE4F1551BDFB3918CC2CF653C664" xr6:coauthVersionLast="21" xr6:coauthVersionMax="21" xr10:uidLastSave="{92A167DC-55F9-44DC-860D-3D15655D96C2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="24300" yWindow="1240" windowWidth="24000" windowHeight="18520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="443" windowWidth="25598" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shopping Trip" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="House">'Shopping Trip'!$B$2:$B$6</definedName>
+    <definedName name="ItemTable">'Shopping Trip'!$A$1:$D$6</definedName>
+    <definedName name="PaidTotal">'Shopping Trip'!$G$5</definedName>
     <definedName name="Prices">'Shopping Trip'!$B$2:$B$6</definedName>
-    <definedName name="Tax_Rate">'Shopping Trip'!$G$2</definedName>
-    <definedName name="Tax_Sales">'Shopping Trip'!$C$2:$C$6</definedName>
+    <definedName name="Products">'Shopping Trip'!$A$2:$A$6</definedName>
+    <definedName name="Tax">'Shopping Trip'!$C$2:$C$6</definedName>
+    <definedName name="TaxPrice">'Shopping Trip'!$D$2:$D$6</definedName>
     <definedName name="TaxRate">'Shopping Trip'!$G$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -47,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Product</t>
   </si>
@@ -80,18 +73,6 @@
   </si>
   <si>
     <t>Gallon of Ice Cream</t>
-  </si>
-  <si>
-    <t>Average Price</t>
-  </si>
-  <si>
-    <t>Average Tax</t>
-  </si>
-  <si>
-    <t>AveragePriceWithTaxes</t>
-  </si>
-  <si>
-    <t>House average</t>
   </si>
 </sst>
 </file>
@@ -512,21 +493,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
     <col min="2" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
     <col min="7" max="7" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -562,7 +543,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -578,7 +559,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -597,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -612,9 +593,12 @@
         <f t="shared" si="0"/>
         <v>9.9</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <f>SUM(TaxPrice)</f>
+        <v>72.599999999999994</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -628,44 +612,6 @@
       <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G9" s="3">
-        <f>AVERAGE(Prices)</f>
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G12" s="3">
-        <f>AVERAGE(Tax_Sales)</f>
-        <v>1.3199999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20">
-        <f>AVERAGE(House)</f>
-        <v>13.2</v>
       </c>
     </row>
   </sheetData>
